--- a/DokkanKits/105.xlsx
+++ b/DokkanKits/105.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8C6BA-B014-4B64-BD0D-37493A23713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE2487-61B2-4880-B77F-2D2CDC6617B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/DokkanKits/105.xlsx
+++ b/DokkanKits/105.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE2487-61B2-4880-B77F-2D2CDC6617B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080065A-73C7-4E93-91DB-8E7905A00205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DokkanKits/105.xlsx
+++ b/DokkanKits/105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080065A-73C7-4E93-91DB-8E7905A00205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE57F9-B1A6-44C1-AA1A-D44185CAB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="720" windowWidth="11415" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
